--- a/LubanTools/DesignerConfigs/Datas/__hdtables__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__hdtables__.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AI-Unity-Framework\LubanTools\DesignerConfigs\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EBE12A-02A9-4957-9CC3-574CD8617311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1515" windowWidth="24315" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -129,6 +125,9 @@
     <t>Chapter_Config</t>
   </si>
   <si>
+    <t>Z_章节表/chapter_config.xlsx</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
@@ -160,26 +159,34 @@
   </si>
   <si>
     <t>GuideCfg</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Guide_Cfg</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z_章节表/chapter_config.xlsx</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Y_引导表/guide_step.xlsx</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCfg</t>
+  </si>
+  <si>
+    <t>Item_Cfg</t>
+  </si>
+  <si>
+    <t>Item/item_config.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,35 +228,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,12 +381,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39991454817346722"/>
+        <fgColor theme="5" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -286,11 +595,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -308,33 +859,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -592,19 +1184,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.875" style="3" customWidth="1"/>
@@ -621,7 +1213,7 @@
     <col min="13" max="16384" width="12.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -656,7 +1248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -689,7 +1281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" s="2" customFormat="1" ht="60" customHeight="1" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -716,7 +1308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>27</v>
@@ -727,31 +1319,31 @@
       <c r="D4" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>41</v>
+      <c r="E4" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -760,19 +1352,19 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -781,19 +1373,19 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" customHeight="1" spans="1:11">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -802,18 +1394,18 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" customHeight="1" spans="1:11">
       <c r="A8" s="5"/>
-      <c r="B8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>40</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D8" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="5"/>
@@ -823,12 +1415,20 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" customHeight="1" spans="1:11">
       <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -836,7 +1436,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -849,7 +1449,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" customHeight="1" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -862,7 +1462,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" customHeight="1" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -875,7 +1475,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" customHeight="1" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -888,7 +1488,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" customHeight="1" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -901,7 +1501,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" customHeight="1" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -914,7 +1514,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" customHeight="1" spans="1:11">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -927,7 +1527,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" customHeight="1" spans="1:11">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -940,7 +1540,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" customHeight="1" spans="1:11">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -953,7 +1553,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" customHeight="1" spans="1:11">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -966,7 +1566,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" customHeight="1" spans="1:11">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -979,7 +1579,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" customHeight="1" spans="1:11">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -992,174 +1592,200 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="7"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+    <row r="23" customHeight="1" spans="1:11">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:11">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:11">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="14.625" style="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="14.625" style="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="14.625" style="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="14.625" style="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="14.625" style="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="14.625" style="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="14.625" style="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="14.625" style="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="14.625" style="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LubanTools/DesignerConfigs/Datas/__hdtables__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__hdtables__.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -174,6 +174,15 @@
   </si>
   <si>
     <t>Item/item_config.xlsx</t>
+  </si>
+  <si>
+    <t>FactoryCfg</t>
+  </si>
+  <si>
+    <t>Factory_Cfg</t>
+  </si>
+  <si>
+    <t>Building/building_factoryconfig.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1202,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="20.1" customHeight="1"/>
@@ -1438,10 +1447,18 @@
     </row>
     <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>

--- a/LubanTools/DesignerConfigs/Datas/__hdtables__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__hdtables__.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>Building/building_factoryconfig.xlsx</t>
+  </si>
+  <si>
+    <t>ServiceCfg</t>
+  </si>
+  <si>
+    <t>Service_Cfg</t>
+  </si>
+  <si>
+    <t>Building/building_serviceconfig.xlsx</t>
   </si>
 </sst>
 </file>
@@ -195,7 +204,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,19 +227,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -720,137 +716,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -868,10 +864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1202,7 +1195,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="20.1" customHeight="1"/>
@@ -1405,10 +1398,10 @@
     </row>
     <row r="8" customHeight="1" spans="1:11">
       <c r="A8" s="5"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="6" t="b">
@@ -1468,10 +1461,18 @@
     </row>
     <row r="11" customHeight="1" spans="1:11">
       <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1610,22 +1611,22 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="1:11">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" customHeight="1" spans="1:11">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" customHeight="1" spans="1:11">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
